--- a/男宝.xlsx
+++ b/男宝.xlsx
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收件人: 唐爽 电话号码:13990110076 康迪克男宝*1 收件人地址: 四川省绵阳市涪城区红星街105号长城花园  身份证号:510227198011110019  ，发件人:A smile 0451461208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郑文静15066012336 山东省东营市垦利县国土资源局 身份证370521198510224426男孩一套，发件人:A smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,10 @@
   </si>
   <si>
     <t>项灵飞13915423974 直邮：江苏省苏州市吴中区郭巷镇尹东新村九期B区30幢206 （男孩3套）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐爽 电话号码:13990110076 康迪克男宝*1 收件人地址: 四川省绵阳市涪城区红星街105号长城花园  身份证号:510227198011110019  ，发件人:A smile 0451461208</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,8 +172,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -265,7 +269,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -307,6 +311,8 @@
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -347,6 +353,8 @@
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -678,7 +686,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -705,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -793,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -848,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -859,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -870,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -881,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -892,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -903,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>

--- a/男宝.xlsx
+++ b/男宝.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>索引-按时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,97 @@
   <si>
     <t>唐爽 电话号码:13990110076 康迪克男宝*1 收件人地址: 四川省绵阳市涪城区红星街105号长城花园  身份证号:510227198011110019  ，发件人:A smile 0451461208</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH02024001635</t>
+  </si>
+  <si>
+    <t>ZH02024001636</t>
+  </si>
+  <si>
+    <t>ZH02024001637,ZH02024001638</t>
+  </si>
+  <si>
+    <t>ZH02024001639</t>
+  </si>
+  <si>
+    <t>ZH02024001640,ZH02024001641,ZH02024001642</t>
+  </si>
+  <si>
+    <t>ZH02024001643,ZH02024001644,ZH02024001645,ZH02024001646,ZH02024001647</t>
+  </si>
+  <si>
+    <t>ZH02024001648,ZH02024001649,ZH02024001650</t>
+  </si>
+  <si>
+    <t>ZH02024001651</t>
+  </si>
+  <si>
+    <t>ZH02024001652</t>
+  </si>
+  <si>
+    <t>ZH02024001653,ZH02024001654</t>
+  </si>
+  <si>
+    <t>ZH02024001656</t>
+  </si>
+  <si>
+    <t>ZH02024001657</t>
+  </si>
+  <si>
+    <t>ZH02024001658</t>
+  </si>
+  <si>
+    <t>ZH02024001659</t>
+  </si>
+  <si>
+    <t>ZH02024001660</t>
+  </si>
+  <si>
+    <t>ZH02024001661</t>
+  </si>
+  <si>
+    <t>ZH02024001662</t>
+  </si>
+  <si>
+    <t>ZH02024001663-ZH02024001672</t>
+  </si>
+  <si>
+    <t>ZH02024001673,ZH02024001674</t>
+  </si>
+  <si>
+    <t>ZH02024001709,ZH02024001710</t>
+  </si>
+  <si>
+    <t>ZH02024001708</t>
+  </si>
+  <si>
+    <t>ZH02024001712</t>
+  </si>
+  <si>
+    <t>ZH02024001711</t>
+  </si>
+  <si>
+    <t>ZH02024001727</t>
+  </si>
+  <si>
+    <t>黄峰 18173612826 ,康迪克杯子直邮男宝2组
+身份证号码120109197708165516
+湖南省常德市武陵区 丹阳街道 蓝湖郡小区后门柏子园社区</t>
+  </si>
+  <si>
+    <t>赖秀娘，18950878787 康迪克杯子直邮男孩一套。
+福建省龙岩市新罗区曹溪街道利来山庄7栋403，
+身份证号码352623195709075563</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 滕理想 18796420234 康迪克男1 江苏省徐州市泉山区三环南路泉山美墅北门隔壁 太美装饰 滕理想 18796420234身份证 320323198507102076</t>
+  </si>
+  <si>
+    <t>李丹 13599327297 福建省龙岩市新罗区北园新村武警公寓405 。男宝一套</t>
+  </si>
+  <si>
+    <t>刘敏, 18256058435 男孩水杯*3套 安徽合肥市包河区包河大道滨水湾小区21栋102     身份证号340111198701141527</t>
   </si>
 </sst>
 </file>
@@ -155,12 +246,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,7 +356,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -683,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -697,7 +797,7 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -708,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -718,8 +818,11 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -729,8 +832,11 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -740,8 +846,11 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -751,8 +860,11 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -762,8 +874,11 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -773,8 +888,11 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -784,8 +902,11 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -795,8 +916,11 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -806,8 +930,11 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -817,8 +944,11 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -828,8 +958,11 @@
       <c r="C12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -839,8 +972,11 @@
       <c r="C13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -850,8 +986,11 @@
       <c r="C14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -861,8 +1000,11 @@
       <c r="C15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -872,8 +1014,11 @@
       <c r="C16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -883,8 +1028,11 @@
       <c r="C17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -894,8 +1042,11 @@
       <c r="C18" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -905,8 +1056,11 @@
       <c r="C19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -916,25 +1070,78 @@
       <c r="C20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="2">
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C24" s="2">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
